--- a/Manual Testing/Test Case Writing/Test Case of Login Page of Facebook.xlsx
+++ b/Manual Testing/Test Case Writing/Test Case of Login Page of Facebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SQA\SQA Sample Works\Manual Testing\Test Case Writing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D6E473-D9A0-48AF-BC9D-43AC89888B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D246AB-EF14-4E58-92C9-0983B6A3230C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,7 +139,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +159,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -247,10 +255,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -281,9 +290,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -295,8 +301,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -578,7 +591,7 @@
   <dimension ref="A1:L105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -655,111 +668,111 @@
       <c r="I6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="15"/>
     </row>
     <row r="7" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="14"/>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="14"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>3</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="14"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>4</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14" t="s">
+      <c r="B10" s="17"/>
+      <c r="C10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="14"/>
+      <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
@@ -1810,6 +1823,12 @@
   <mergeCells count="1">
     <mergeCell ref="B7:B10"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H7" r:id="rId1" xr:uid="{AEBDCB6E-A865-4665-AC2B-3394986D76F3}"/>
+    <hyperlink ref="H8" r:id="rId2" xr:uid="{88467F48-05E4-4B6C-A7B0-2E78CC84AA17}"/>
+    <hyperlink ref="H9" r:id="rId3" xr:uid="{A300F3B2-7AFF-47A5-B6C8-58A0CEF3659B}"/>
+    <hyperlink ref="H10" r:id="rId4" xr:uid="{B278226E-F39E-48C4-8C37-5D7230202F84}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Manual Testing/Test Case Writing/Test Case of Login Page of Facebook.xlsx
+++ b/Manual Testing/Test Case Writing/Test Case of Login Page of Facebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SQA\SQA Sample Works\Manual Testing\Test Case Writing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D246AB-EF14-4E58-92C9-0983B6A3230C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E08AA81-F517-4F89-8179-EAE7881920A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
   <si>
     <t>Project Name:</t>
   </si>
@@ -133,13 +133,96 @@
   </si>
   <si>
     <t>Pic4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the cursor is focused on the "User name" text box on page load </t>
+  </si>
+  <si>
+    <t>Cursor should be focused on "User name" text box</t>
+  </si>
+  <si>
+    <t>Cursor is focused on the text box</t>
+  </si>
+  <si>
+    <t>Pic5</t>
+  </si>
+  <si>
+    <t>Login:: Cursor focus</t>
+  </si>
+  <si>
+    <t>Login:: Tab button</t>
+  </si>
+  <si>
+    <t>Tab functionalities should work properly</t>
+  </si>
+  <si>
+    <t>Tab is worked successfully</t>
+  </si>
+  <si>
+    <t>Login:: Tab/ Enter key</t>
+  </si>
+  <si>
+    <t>Verify "Tab" functionalities is working properly or not</t>
+  </si>
+  <si>
+    <t>Verify "Enter/ Tab" key works as a signin button substitute</t>
+  </si>
+  <si>
+    <t>Tab/ Enter key should work properly</t>
+  </si>
+  <si>
+    <t>Tab/ Enter key worked successfully</t>
+  </si>
+  <si>
+    <t>Login:: Valid credential</t>
+  </si>
+  <si>
+    <t>Verify that the user is able to login with valid email address &amp; password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should be able to login </t>
+  </si>
+  <si>
+    <t>successfully logged in</t>
+  </si>
+  <si>
+    <t>Login:: Invalid credentials</t>
+  </si>
+  <si>
+    <t>Verify that user isn't able to login with invalid email and password</t>
+  </si>
+  <si>
+    <t>Email: invalid@gmail.com; Password: ********</t>
+  </si>
+  <si>
+    <t>Email: valid@gmail.com; Password: ********</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shouldn't be able to login </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A message is shown </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Wrong credentials Invalid username or password"</t>
+    </r>
+  </si>
+  <si>
+    <t>Pic6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +250,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -267,10 +356,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -301,11 +386,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -590,21 +681,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18" style="2" customWidth="1"/>
-    <col min="3" max="3" width="32" style="10" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="32" style="8" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" style="8" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="8" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -612,7 +703,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="17" t="s">
         <v>4</v>
       </c>
     </row>
@@ -620,7 +711,7 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="17" t="s">
         <v>5</v>
       </c>
     </row>
@@ -628,7 +719,7 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="17" t="s">
         <v>6</v>
       </c>
     </row>
@@ -636,7 +727,7 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="18">
         <v>45539</v>
       </c>
     </row>
@@ -644,1180 +735,1254 @@
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="15"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="13"/>
     </row>
     <row r="7" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
+      <c r="A7" s="10">
         <v>1</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="13"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
+      <c r="A8" s="10">
         <v>2</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="13"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
+      <c r="A9" s="10">
         <v>3</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="13" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="13"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
+      <c r="A10" s="10">
         <v>4</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="13"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
+        <v>5</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
+        <v>6</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
+        <v>7</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
+        <v>8</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="7"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="7"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
+      <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
+      <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
+      <c r="A24" s="6"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
+      <c r="A25" s="6"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
+      <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
+      <c r="A27" s="6"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
+      <c r="A28" s="6"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
+      <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
+      <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
+      <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
+      <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
+      <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
+      <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
+      <c r="A35" s="6"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
+      <c r="A36" s="6"/>
       <c r="B36" s="7"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
+      <c r="A37" s="6"/>
       <c r="B37" s="7"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
+      <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
+      <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="8"/>
+      <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
+      <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="8"/>
+      <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="7"/>
+      <c r="A43" s="5"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
+      <c r="A44" s="5"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="7"/>
+      <c r="A45" s="5"/>
       <c r="B45" s="7"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="7"/>
+      <c r="A46" s="5"/>
       <c r="B46" s="7"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="7"/>
+      <c r="A47" s="5"/>
       <c r="B47" s="7"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="7"/>
+      <c r="A48" s="5"/>
       <c r="B48" s="7"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="7"/>
+      <c r="A49" s="5"/>
       <c r="B49" s="7"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="7"/>
+      <c r="A50" s="5"/>
       <c r="B50" s="7"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="7"/>
+      <c r="A51" s="5"/>
       <c r="B51" s="7"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="7"/>
+      <c r="A52" s="5"/>
       <c r="B52" s="7"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="7"/>
+      <c r="A53" s="5"/>
       <c r="B53" s="7"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="7"/>
+      <c r="A54" s="5"/>
       <c r="B54" s="7"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="7"/>
+      <c r="A55" s="5"/>
       <c r="B55" s="7"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="7"/>
+      <c r="A56" s="5"/>
       <c r="B56" s="7"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="7"/>
+      <c r="A57" s="5"/>
       <c r="B57" s="7"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="7"/>
+      <c r="A58" s="5"/>
       <c r="B58" s="7"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="7"/>
+      <c r="A59" s="5"/>
       <c r="B59" s="7"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="7"/>
+      <c r="A60" s="5"/>
       <c r="B60" s="7"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="7"/>
+      <c r="A61" s="5"/>
       <c r="B61" s="7"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="7"/>
+      <c r="A62" s="5"/>
       <c r="B62" s="7"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="7"/>
+      <c r="A63" s="5"/>
       <c r="B63" s="7"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="7"/>
+      <c r="A64" s="5"/>
       <c r="B64" s="7"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="7"/>
+      <c r="A65" s="5"/>
       <c r="B65" s="7"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="7"/>
+      <c r="A66" s="5"/>
       <c r="B66" s="7"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="7"/>
+      <c r="A67" s="5"/>
       <c r="B67" s="7"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="7"/>
+      <c r="A68" s="5"/>
       <c r="B68" s="7"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="7"/>
+      <c r="A69" s="5"/>
       <c r="B69" s="7"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="7"/>
+      <c r="A70" s="5"/>
       <c r="B70" s="7"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="7"/>
+      <c r="A71" s="5"/>
       <c r="B71" s="7"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="7"/>
+      <c r="A72" s="5"/>
       <c r="B72" s="7"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="7"/>
+      <c r="A73" s="5"/>
       <c r="B73" s="7"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="7"/>
+      <c r="A74" s="5"/>
       <c r="B74" s="7"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="7"/>
+      <c r="A75" s="5"/>
       <c r="B75" s="7"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="7"/>
+      <c r="A76" s="5"/>
       <c r="B76" s="7"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="7"/>
+      <c r="A77" s="5"/>
       <c r="B77" s="7"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="7"/>
+      <c r="A78" s="5"/>
       <c r="B78" s="7"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="7"/>
+      <c r="A79" s="5"/>
       <c r="B79" s="7"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="7"/>
+      <c r="A80" s="5"/>
       <c r="B80" s="7"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="7"/>
+      <c r="A81" s="5"/>
       <c r="B81" s="7"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="7"/>
+      <c r="A82" s="5"/>
       <c r="B82" s="7"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="7"/>
+      <c r="A83" s="5"/>
       <c r="B83" s="7"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="7"/>
+      <c r="A84" s="5"/>
       <c r="B84" s="7"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="9"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="7"/>
+      <c r="A85" s="5"/>
       <c r="B85" s="7"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="7"/>
+      <c r="A86" s="5"/>
       <c r="B86" s="7"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="9"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="7"/>
+      <c r="A87" s="5"/>
       <c r="B87" s="7"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="9"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="7"/>
+      <c r="A88" s="5"/>
       <c r="B88" s="7"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="9"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="7"/>
+      <c r="A89" s="5"/>
       <c r="B89" s="7"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="9"/>
-      <c r="I89" s="9"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="7"/>
+      <c r="A90" s="5"/>
       <c r="B90" s="7"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="9"/>
-      <c r="I90" s="9"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="7"/>
+      <c r="A91" s="5"/>
       <c r="B91" s="7"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="9"/>
-      <c r="I91" s="9"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="7"/>
+      <c r="A92" s="5"/>
       <c r="B92" s="7"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="9"/>
-      <c r="I92" s="9"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="7"/>
+      <c r="A93" s="5"/>
       <c r="B93" s="7"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="9"/>
-      <c r="I93" s="9"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="7"/>
+      <c r="A94" s="5"/>
       <c r="B94" s="7"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="9"/>
-      <c r="I94" s="9"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="7"/>
+      <c r="A95" s="5"/>
       <c r="B95" s="7"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="9"/>
-      <c r="I95" s="9"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="7"/>
+      <c r="A96" s="5"/>
       <c r="B96" s="7"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="9"/>
-      <c r="I96" s="9"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="7"/>
+      <c r="A97" s="5"/>
       <c r="B97" s="7"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="9"/>
-      <c r="I97" s="9"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="7"/>
+      <c r="A98" s="5"/>
       <c r="B98" s="7"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="9"/>
-      <c r="I98" s="9"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="7"/>
+      <c r="A99" s="5"/>
       <c r="B99" s="7"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="9"/>
-      <c r="I99" s="9"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" s="7"/>
+      <c r="A100" s="5"/>
       <c r="B100" s="7"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="9"/>
-      <c r="I100" s="9"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="7"/>
+      <c r="A101" s="5"/>
       <c r="B101" s="7"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="9"/>
-      <c r="I101" s="9"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="7"/>
+      <c r="A102" s="5"/>
       <c r="B102" s="7"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="9"/>
-      <c r="I102" s="9"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="7"/>
+      <c r="A103" s="5"/>
       <c r="B103" s="7"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="9"/>
-      <c r="I103" s="9"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="7"/>
+      <c r="A104" s="5"/>
       <c r="B104" s="7"/>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="9"/>
-      <c r="I104" s="9"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="7"/>
+      <c r="A105" s="5"/>
       <c r="B105" s="7"/>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="9"/>
-      <c r="I105" s="9"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1828,7 +1993,9 @@
     <hyperlink ref="H8" r:id="rId2" xr:uid="{88467F48-05E4-4B6C-A7B0-2E78CC84AA17}"/>
     <hyperlink ref="H9" r:id="rId3" xr:uid="{A300F3B2-7AFF-47A5-B6C8-58A0CEF3659B}"/>
     <hyperlink ref="H10" r:id="rId4" xr:uid="{B278226E-F39E-48C4-8C37-5D7230202F84}"/>
+    <hyperlink ref="H11" r:id="rId5" xr:uid="{8D65BF9E-65CE-4740-BD28-5E497E50D6D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Manual Testing/Test Case Writing/Test Case of Login Page of Facebook.xlsx
+++ b/Manual Testing/Test Case Writing/Test Case of Login Page of Facebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SQA\SQA Sample Works\Manual Testing\Test Case Writing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E08AA81-F517-4F89-8179-EAE7881920A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74F48DB-6A5A-40A4-9DEC-249E2D130075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="73">
   <si>
     <t>Project Name:</t>
   </si>
@@ -187,15 +187,6 @@
   </si>
   <si>
     <t>Login:: Invalid credentials</t>
-  </si>
-  <si>
-    <t>Verify that user isn't able to login with invalid email and password</t>
-  </si>
-  <si>
-    <t>Email: invalid@gmail.com; Password: ********</t>
-  </si>
-  <si>
-    <t>Email: valid@gmail.com; Password: ********</t>
   </si>
   <si>
     <t xml:space="preserve">Shouldn't be able to login </t>
@@ -217,12 +208,60 @@
   <si>
     <t>Pic6</t>
   </si>
+  <si>
+    <t>Verify that user isn't able to login with blank email &amp; password</t>
+  </si>
+  <si>
+    <t>Verify that user isn't able to login with valid email &amp; invalid password</t>
+  </si>
+  <si>
+    <t>Verify that user isn't able to login with invalid email &amp; password</t>
+  </si>
+  <si>
+    <t>Verify that user isn't able to login with invalid email &amp; valid password</t>
+  </si>
+  <si>
+    <t>Email: valid@gmail.com; Password: valid</t>
+  </si>
+  <si>
+    <t>Email: invalid@gmail.com; Password: invalid</t>
+  </si>
+  <si>
+    <t>Email: invalid@gmail.com; Password: valid</t>
+  </si>
+  <si>
+    <t>Email: valid@gmail.com; Password: invalid</t>
+  </si>
+  <si>
+    <t>Email: Null; Password: null</t>
+  </si>
+  <si>
+    <t>Pic7</t>
+  </si>
+  <si>
+    <t>Pic8</t>
+  </si>
+  <si>
+    <t>Login:: Password field</t>
+  </si>
+  <si>
+    <t>Verify that the password field doesn’t reveald the characters</t>
+  </si>
+  <si>
+    <t>Shouldn't show the characters</t>
+  </si>
+  <si>
+    <t>Doesn't show the characters</t>
+  </si>
+  <si>
+    <t>Pic9</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,6 +296,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -278,7 +323,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -343,12 +388,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -392,11 +474,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -679,17 +779,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L105"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="32" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" style="8" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" style="8" customWidth="1"/>
     <col min="5" max="5" width="30.85546875" style="8" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" style="8" customWidth="1"/>
@@ -703,7 +803,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="23" t="s">
         <v>4</v>
       </c>
     </row>
@@ -711,7 +811,7 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -719,7 +819,7 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="23" t="s">
         <v>6</v>
       </c>
     </row>
@@ -727,7 +827,7 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="24">
         <v>45539</v>
       </c>
     </row>
@@ -735,7 +835,7 @@
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -767,7 +867,7 @@
       <c r="A7" s="10">
         <v>1</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -794,7 +894,7 @@
       <c r="A8" s="10">
         <v>2</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="11" t="s">
         <v>22</v>
       </c>
@@ -819,7 +919,7 @@
       <c r="A9" s="10">
         <v>3</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="11" t="s">
         <v>27</v>
       </c>
@@ -844,7 +944,7 @@
       <c r="A10" s="10">
         <v>4</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="11" t="s">
         <v>31</v>
       </c>
@@ -865,11 +965,11 @@
       </c>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>5</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -896,7 +996,7 @@
       <c r="A12" s="10">
         <v>6</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -921,7 +1021,7 @@
       <c r="A13" s="10">
         <v>7</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="16" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -946,16 +1046,16 @@
       <c r="A14" s="10">
         <v>8</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>50</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>51</v>
       </c>
       <c r="F14" s="11" t="s">
@@ -968,79 +1068,120 @@
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="18">
         <v>9</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="F15" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="G15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
+        <v>10</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
+        <v>11</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
+        <v>12</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="D18" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H18" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
+        <v>13</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -1049,9 +1190,8 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -1062,7 +1202,6 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -1073,7 +1212,6 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -1084,7 +1222,6 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -1095,7 +1232,6 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -1106,7 +1242,6 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -1117,7 +1252,6 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -1128,7 +1262,6 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -1139,7 +1272,6 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -1150,7 +1282,6 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -1161,7 +1292,6 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -1172,7 +1302,6 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -1183,7 +1312,6 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
-      <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -1194,7 +1322,6 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -1205,7 +1332,6 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -1216,7 +1342,6 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -1227,7 +1352,6 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -1238,7 +1362,6 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -1249,7 +1372,6 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -1260,7 +1382,6 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -1271,7 +1392,6 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
-      <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -1281,8 +1401,7 @@
       <c r="I41" s="7"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="6"/>
-      <c r="B42" s="7"/>
+      <c r="A42" s="5"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
@@ -1293,7 +1412,6 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
-      <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -1304,7 +1422,6 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
-      <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -1315,7 +1432,6 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
-      <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -1326,7 +1442,6 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
-      <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
@@ -1337,7 +1452,6 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
-      <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
@@ -1348,7 +1462,6 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
-      <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
@@ -1359,7 +1472,6 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
-      <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
@@ -1370,7 +1482,6 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
-      <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
@@ -1381,7 +1492,6 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
-      <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
@@ -1392,7 +1502,6 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
-      <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
@@ -1403,7 +1512,6 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
-      <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
@@ -1414,7 +1522,6 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
-      <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
@@ -1425,7 +1532,6 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
-      <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
@@ -1436,7 +1542,6 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
-      <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
@@ -1447,7 +1552,6 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
-      <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
@@ -1458,7 +1562,6 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
-      <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
@@ -1469,7 +1572,6 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
-      <c r="B59" s="7"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
@@ -1480,7 +1582,6 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
-      <c r="B60" s="7"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
@@ -1491,7 +1592,6 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
-      <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
@@ -1502,7 +1602,6 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
-      <c r="B62" s="7"/>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
@@ -1513,7 +1612,6 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
-      <c r="B63" s="7"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -1524,7 +1622,6 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
-      <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
@@ -1535,7 +1632,6 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
-      <c r="B65" s="7"/>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -1546,7 +1642,6 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
-      <c r="B66" s="7"/>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
@@ -1557,7 +1652,6 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
-      <c r="B67" s="7"/>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
@@ -1568,7 +1662,6 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
-      <c r="B68" s="7"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
@@ -1579,7 +1672,6 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
-      <c r="B69" s="7"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -1590,7 +1682,6 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
-      <c r="B70" s="7"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
@@ -1601,7 +1692,6 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
-      <c r="B71" s="7"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
@@ -1612,7 +1702,6 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
-      <c r="B72" s="7"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
@@ -1623,7 +1712,6 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
-      <c r="B73" s="7"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
@@ -1634,7 +1722,6 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
-      <c r="B74" s="7"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
@@ -1645,7 +1732,6 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
-      <c r="B75" s="7"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
@@ -1656,7 +1742,6 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
-      <c r="B76" s="7"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
@@ -1667,7 +1752,6 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
-      <c r="B77" s="7"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
@@ -1678,7 +1762,6 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
-      <c r="B78" s="7"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
@@ -1689,7 +1772,6 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
-      <c r="B79" s="7"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
@@ -1700,7 +1782,6 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
-      <c r="B80" s="7"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
@@ -1711,7 +1792,6 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
-      <c r="B81" s="7"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
@@ -1722,7 +1802,6 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
-      <c r="B82" s="7"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
@@ -1733,7 +1812,6 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
-      <c r="B83" s="7"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
@@ -1744,7 +1822,6 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
-      <c r="B84" s="7"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
@@ -1755,7 +1832,6 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
-      <c r="B85" s="7"/>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
@@ -1766,7 +1842,6 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
-      <c r="B86" s="7"/>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
@@ -1777,7 +1852,6 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
-      <c r="B87" s="7"/>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
@@ -1788,7 +1862,6 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
-      <c r="B88" s="7"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
@@ -1799,7 +1872,6 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
-      <c r="B89" s="7"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
@@ -1810,7 +1882,6 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
-      <c r="B90" s="7"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
@@ -1821,7 +1892,6 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
-      <c r="B91" s="7"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
@@ -1832,7 +1902,6 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
-      <c r="B92" s="7"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
@@ -1843,7 +1912,6 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
-      <c r="B93" s="7"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
@@ -1854,7 +1922,6 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
-      <c r="B94" s="7"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
@@ -1865,7 +1932,6 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="5"/>
-      <c r="B95" s="7"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
@@ -1876,7 +1942,6 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
-      <c r="B96" s="7"/>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
@@ -1887,7 +1952,6 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
-      <c r="B97" s="7"/>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
@@ -1898,7 +1962,6 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
-      <c r="B98" s="7"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
@@ -1909,7 +1972,6 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
-      <c r="B99" s="7"/>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
@@ -1920,7 +1982,6 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
-      <c r="B100" s="7"/>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
@@ -1931,7 +1992,6 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
-      <c r="B101" s="7"/>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
@@ -1942,7 +2002,6 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
-      <c r="B102" s="7"/>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
@@ -1953,7 +2012,6 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
-      <c r="B103" s="7"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
@@ -1964,7 +2022,6 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
-      <c r="B104" s="7"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
@@ -1973,29 +2030,24 @@
       <c r="H104" s="7"/>
       <c r="I104" s="7"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="5"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="5"/>
-      <c r="H105" s="7"/>
-      <c r="I105" s="7"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
+    <mergeCell ref="F15:F18"/>
     <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="E15:E18"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H7" r:id="rId1" xr:uid="{AEBDCB6E-A865-4665-AC2B-3394986D76F3}"/>
     <hyperlink ref="H8" r:id="rId2" xr:uid="{88467F48-05E4-4B6C-A7B0-2E78CC84AA17}"/>
     <hyperlink ref="H9" r:id="rId3" xr:uid="{A300F3B2-7AFF-47A5-B6C8-58A0CEF3659B}"/>
     <hyperlink ref="H10" r:id="rId4" xr:uid="{B278226E-F39E-48C4-8C37-5D7230202F84}"/>
     <hyperlink ref="H11" r:id="rId5" xr:uid="{8D65BF9E-65CE-4740-BD28-5E497E50D6D5}"/>
+    <hyperlink ref="H15" r:id="rId6" xr:uid="{900278F4-957A-4B44-B600-FD45B17467F0}"/>
+    <hyperlink ref="H16" r:id="rId7" display="Pic6" xr:uid="{60687947-7398-4503-A6C4-6B11E4E8662C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/Manual Testing/Test Case Writing/Test Case of Login Page of Facebook.xlsx
+++ b/Manual Testing/Test Case Writing/Test Case of Login Page of Facebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SQA\SQA Sample Works\Manual Testing\Test Case Writing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74F48DB-6A5A-40A4-9DEC-249E2D130075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312F1868-8EB0-477C-A719-8BFD1AA9D0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
   <si>
     <t>Project Name:</t>
   </si>
@@ -261,7 +261,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,6 +301,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -430,7 +437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -457,9 +464,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -468,12 +472,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -481,6 +479,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -492,10 +496,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -781,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -803,7 +807,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="17" t="s">
         <v>4</v>
       </c>
     </row>
@@ -811,7 +815,7 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="17" t="s">
         <v>5</v>
       </c>
     </row>
@@ -819,7 +823,7 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="17" t="s">
         <v>6</v>
       </c>
     </row>
@@ -827,7 +831,7 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="18">
         <v>45539</v>
       </c>
     </row>
@@ -835,7 +839,7 @@
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -859,326 +863,328 @@
       <c r="I6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="12"/>
     </row>
     <row r="7" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>1</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="11"/>
+      <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>2</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="11"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>3</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="11"/>
+      <c r="I9" s="14"/>
     </row>
     <row r="10" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>4</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="11"/>
+      <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>5</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="11"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>6</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>7</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>8</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="18">
+      <c r="A15" s="15">
         <v>9</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="16"/>
+      <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>10</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="16" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="12" t="s">
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="I16" s="16"/>
+      <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>11</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="16" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="12" t="s">
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>12</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="16" t="s">
+      <c r="B18" s="21"/>
+      <c r="C18" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="12" t="s">
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="I18" s="16"/>
+      <c r="I18" s="14"/>
     </row>
     <row r="19" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>13</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16" t="s">
+      <c r="D19" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="I19" s="16"/>
+      <c r="I19" s="14"/>
     </row>
     <row r="20" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
@@ -2046,8 +2052,10 @@
     <hyperlink ref="H11" r:id="rId5" xr:uid="{8D65BF9E-65CE-4740-BD28-5E497E50D6D5}"/>
     <hyperlink ref="H15" r:id="rId6" xr:uid="{900278F4-957A-4B44-B600-FD45B17467F0}"/>
     <hyperlink ref="H16" r:id="rId7" display="Pic6" xr:uid="{60687947-7398-4503-A6C4-6B11E4E8662C}"/>
+    <hyperlink ref="H18" r:id="rId8" xr:uid="{CD00DE70-9017-4168-A035-EFCCD40432C9}"/>
+    <hyperlink ref="H19" r:id="rId9" xr:uid="{4DC42D4F-272B-47D1-95A1-68AE1350687C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/Manual Testing/Test Case Writing/Test Case of Login Page of Facebook.xlsx
+++ b/Manual Testing/Test Case Writing/Test Case of Login Page of Facebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SQA\SQA Sample Works\Manual Testing\Test Case Writing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312F1868-8EB0-477C-A719-8BFD1AA9D0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC831837-7F06-43B5-9D4D-A344B4235262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="105">
   <si>
     <t>Project Name:</t>
   </si>
@@ -242,12 +242,6 @@
     <t>Pic8</t>
   </si>
   <si>
-    <t>Login:: Password field</t>
-  </si>
-  <si>
-    <t>Verify that the password field doesn’t reveald the characters</t>
-  </si>
-  <si>
     <t>Shouldn't show the characters</t>
   </si>
   <si>
@@ -255,13 +249,155 @@
   </si>
   <si>
     <t>Pic9</t>
+  </si>
+  <si>
+    <t>Login:: Homepage</t>
+  </si>
+  <si>
+    <t>Verify that user is redirected to homepage after successful login</t>
+  </si>
+  <si>
+    <t>Shoul redirect to the appropriate page</t>
+  </si>
+  <si>
+    <t>Redirected to the homepage successfully</t>
+  </si>
+  <si>
+    <t>Login:: Forgotten Password?</t>
+  </si>
+  <si>
+    <t>Shoul redirect to the Forget Password page</t>
+  </si>
+  <si>
+    <t>Successfully redirected to the Forget Password page</t>
+  </si>
+  <si>
+    <t>Pic10</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is redirected to Forget Password page clicking on the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Forgotten Password?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Link</t>
+    </r>
+  </si>
+  <si>
+    <t>Login: Create new account</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is redirected to Create new account page clicking on the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Create new account</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Link</t>
+    </r>
+  </si>
+  <si>
+    <t>Successfully redirected to the Create new account page</t>
+  </si>
+  <si>
+    <t>Pic11</t>
+  </si>
+  <si>
+    <t>Login:: Password</t>
+  </si>
+  <si>
+    <t>Verify that the field doesn't accept any space</t>
+  </si>
+  <si>
+    <t>pass: abc def ghi</t>
+  </si>
+  <si>
+    <t>shouldn't accept the space</t>
+  </si>
+  <si>
+    <t>Doesn't accept the spaces</t>
+  </si>
+  <si>
+    <t>Verify that the password is in encrypted form when typing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the system shouldn't allow users to copy paste password </t>
+  </si>
+  <si>
+    <t>shouldn't accept the copy paste character</t>
+  </si>
+  <si>
+    <t>Accepted copy paste password</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Verify that encrypted password sholdn't allow deciphering if copied</t>
+  </si>
+  <si>
+    <t>Shouldn’t copy the encrypted charaters</t>
+  </si>
+  <si>
+    <t>doesn't copy the encrypted characters</t>
+  </si>
+  <si>
+    <t>Pic12</t>
+  </si>
+  <si>
+    <t>Login:: Page source</t>
+  </si>
+  <si>
+    <t>Verify whether the login form is revealing any security information by viewing the page source</t>
+  </si>
+  <si>
+    <t>Inspection mode</t>
+  </si>
+  <si>
+    <t>Should redirect to the Create new account page</t>
+  </si>
+  <si>
+    <t>Shouldn't reveal any personal data</t>
+  </si>
+  <si>
+    <t>Doesn't reveal any security information</t>
+  </si>
+  <si>
+    <t>Pic13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +445,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -330,7 +472,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -432,12 +574,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -493,14 +644,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -785,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -871,7 +1054,7 @@
       <c r="A7" s="10">
         <v>1</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="26" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="14" t="s">
@@ -889,7 +1072,7 @@
       <c r="G7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="22" t="s">
         <v>25</v>
       </c>
       <c r="I7" s="14"/>
@@ -898,7 +1081,7 @@
       <c r="A8" s="10">
         <v>2</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="14" t="s">
         <v>22</v>
       </c>
@@ -914,7 +1097,7 @@
       <c r="G8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="22" t="s">
         <v>26</v>
       </c>
       <c r="I8" s="14"/>
@@ -923,7 +1106,7 @@
       <c r="A9" s="10">
         <v>3</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="14" t="s">
         <v>27</v>
       </c>
@@ -939,7 +1122,7 @@
       <c r="G9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="22" t="s">
         <v>30</v>
       </c>
       <c r="I9" s="14"/>
@@ -948,7 +1131,7 @@
       <c r="A10" s="10">
         <v>4</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="14" t="s">
         <v>31</v>
       </c>
@@ -964,7 +1147,7 @@
       <c r="G10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="22" t="s">
         <v>35</v>
       </c>
       <c r="I10" s="14"/>
@@ -991,7 +1174,7 @@
       <c r="G11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="22" t="s">
         <v>39</v>
       </c>
       <c r="I11" s="14"/>
@@ -1075,7 +1258,7 @@
       <c r="A15" s="15">
         <v>9</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="23" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="14" t="s">
@@ -1084,16 +1267,16 @@
       <c r="D15" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="23" t="s">
         <v>55</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="22" t="s">
         <v>56</v>
       </c>
       <c r="I15" s="14"/>
@@ -1102,19 +1285,19 @@
       <c r="A16" s="10">
         <v>10</v>
       </c>
-      <c r="B16" s="20"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="14" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
       <c r="G16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="22" t="s">
         <v>66</v>
       </c>
       <c r="I16" s="14"/>
@@ -1123,15 +1306,15 @@
       <c r="A17" s="10">
         <v>11</v>
       </c>
-      <c r="B17" s="20"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="14" t="s">
         <v>58</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
       <c r="G17" s="11" t="s">
         <v>20</v>
       </c>
@@ -1142,19 +1325,19 @@
       <c r="A18" s="10">
         <v>12</v>
       </c>
-      <c r="B18" s="21"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="14" t="s">
         <v>57</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
       <c r="G18" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="22" t="s">
         <v>67</v>
       </c>
       <c r="I18" s="14"/>
@@ -1163,98 +1346,205 @@
       <c r="A19" s="10">
         <v>13</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>69</v>
+      <c r="B19" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>89</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="H19" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15">
+        <v>14</v>
+      </c>
+      <c r="B20" s="31"/>
+      <c r="C20" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="29"/>
+      <c r="I20" s="19"/>
+    </row>
+    <row r="21" spans="1:9" s="33" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15">
+        <v>15</v>
+      </c>
+      <c r="B21" s="31"/>
+      <c r="C21" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" spans="1:9" s="28" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="10">
+        <v>16</v>
+      </c>
+      <c r="B22" s="32"/>
+      <c r="C22" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" s="21"/>
+    </row>
+    <row r="23" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="34">
+        <v>17</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="I19" s="14"/>
-    </row>
-    <row r="20" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
+      <c r="D23" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+    </row>
+    <row r="24" spans="1:9" s="28" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="10">
+        <v>18</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="I24" s="21"/>
+    </row>
+    <row r="25" spans="1:9" s="28" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
+        <v>19</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="I25" s="21"/>
+    </row>
+    <row r="26" spans="1:9" s="28" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
+        <v>20</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
@@ -2037,7 +2327,8 @@
       <c r="I104" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="B19:B22"/>
     <mergeCell ref="F15:F18"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B15:B18"/>

--- a/Manual Testing/Test Case Writing/Test Case of Login Page of Facebook.xlsx
+++ b/Manual Testing/Test Case Writing/Test Case of Login Page of Facebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SQA\SQA Sample Works\Manual Testing\Test Case Writing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC831837-7F06-43B5-9D4D-A344B4235262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3726C344-B4D7-4D94-8A7D-309A3AB84DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="104">
   <si>
     <t>Project Name:</t>
   </si>
@@ -257,16 +257,10 @@
     <t>Verify that user is redirected to homepage after successful login</t>
   </si>
   <si>
-    <t>Shoul redirect to the appropriate page</t>
-  </si>
-  <si>
     <t>Redirected to the homepage successfully</t>
   </si>
   <si>
     <t>Login:: Forgotten Password?</t>
-  </si>
-  <si>
-    <t>Shoul redirect to the Forget Password page</t>
   </si>
   <si>
     <t>Successfully redirected to the Forget Password page</t>
@@ -390,7 +384,10 @@
     <t>Doesn't reveal any security information</t>
   </si>
   <si>
-    <t>Pic13</t>
+    <t>Should redirect to the appropriate page</t>
+  </si>
+  <si>
+    <t>Should redirect to the Forget Password page</t>
   </si>
 </sst>
 </file>
@@ -588,7 +585,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -653,12 +650,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -669,21 +660,33 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -968,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1054,7 +1057,7 @@
       <c r="A7" s="10">
         <v>1</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="37" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="14" t="s">
@@ -1081,7 +1084,7 @@
       <c r="A8" s="10">
         <v>2</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="14" t="s">
         <v>22</v>
       </c>
@@ -1106,7 +1109,7 @@
       <c r="A9" s="10">
         <v>3</v>
       </c>
-      <c r="B9" s="26"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="14" t="s">
         <v>27</v>
       </c>
@@ -1131,7 +1134,7 @@
       <c r="A10" s="10">
         <v>4</v>
       </c>
-      <c r="B10" s="26"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="14" t="s">
         <v>31</v>
       </c>
@@ -1258,7 +1261,7 @@
       <c r="A15" s="15">
         <v>9</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="34" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="14" t="s">
@@ -1267,10 +1270,10 @@
       <c r="D15" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="34" t="s">
         <v>55</v>
       </c>
       <c r="G15" s="11" t="s">
@@ -1285,15 +1288,15 @@
       <c r="A16" s="10">
         <v>10</v>
       </c>
-      <c r="B16" s="24"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="14" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
       <c r="G16" s="11" t="s">
         <v>20</v>
       </c>
@@ -1306,15 +1309,15 @@
       <c r="A17" s="10">
         <v>11</v>
       </c>
-      <c r="B17" s="24"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="14" t="s">
         <v>58</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
       <c r="G17" s="11" t="s">
         <v>20</v>
       </c>
@@ -1325,15 +1328,15 @@
       <c r="A18" s="10">
         <v>12</v>
       </c>
-      <c r="B18" s="25"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="14" t="s">
         <v>57</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
       <c r="G18" s="11" t="s">
         <v>20</v>
       </c>
@@ -1346,11 +1349,11 @@
       <c r="A19" s="10">
         <v>13</v>
       </c>
-      <c r="B19" s="30" t="s">
-        <v>84</v>
+      <c r="B19" s="31" t="s">
+        <v>82</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>17</v>
@@ -1373,77 +1376,75 @@
       <c r="A20" s="15">
         <v>14</v>
       </c>
-      <c r="B20" s="31"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="F20" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="29"/>
+      <c r="H20" s="27"/>
       <c r="I20" s="19"/>
     </row>
-    <row r="21" spans="1:9" s="33" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" s="28" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15">
         <v>15</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="19" t="s">
+      <c r="B21" s="32"/>
+      <c r="C21" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="D21" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="19" t="s">
+      <c r="G21" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="F21" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="H21" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="I21" s="19"/>
-    </row>
-    <row r="22" spans="1:9" s="28" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H21" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" s="23"/>
+    </row>
+    <row r="22" spans="1:9" s="26" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>16</v>
       </c>
-      <c r="B22" s="32"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="21" t="s">
-        <v>83</v>
-      </c>
+      <c r="H22" s="21"/>
       <c r="I22" s="21"/>
     </row>
     <row r="23" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="34">
+      <c r="A23" s="29">
         <v>17</v>
       </c>
       <c r="B23" s="20" t="s">
@@ -1456,89 +1457,89 @@
         <v>17</v>
       </c>
       <c r="E23" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="G23" s="35" t="s">
+      <c r="G23" s="30" t="s">
         <v>20</v>
       </c>
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:9" s="28" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" s="26" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>18</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="24" t="s">
         <v>75</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>77</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="I24" s="21"/>
-    </row>
-    <row r="25" spans="1:9" s="28" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H24" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24" s="24"/>
+    </row>
+    <row r="25" spans="1:9" s="26" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>19</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" s="24" t="s">
         <v>80</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>82</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="I25" s="21"/>
-    </row>
-    <row r="26" spans="1:9" s="28" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H25" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="I25" s="24"/>
+    </row>
+    <row r="26" spans="1:9" s="26" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>20</v>
       </c>
       <c r="B26" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" s="21" t="s">
+      <c r="E26" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="E26" s="21" t="s">
-        <v>102</v>
-      </c>
       <c r="F26" s="21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>20</v>
@@ -2345,8 +2346,11 @@
     <hyperlink ref="H16" r:id="rId7" display="Pic6" xr:uid="{60687947-7398-4503-A6C4-6B11E4E8662C}"/>
     <hyperlink ref="H18" r:id="rId8" xr:uid="{CD00DE70-9017-4168-A035-EFCCD40432C9}"/>
     <hyperlink ref="H19" r:id="rId9" xr:uid="{4DC42D4F-272B-47D1-95A1-68AE1350687C}"/>
+    <hyperlink ref="H21" r:id="rId10" xr:uid="{ACF5EC2C-7B7E-4941-837C-106252EC6AA7}"/>
+    <hyperlink ref="H24" r:id="rId11" xr:uid="{B94903C3-E133-46BF-888F-C29863CC6165}"/>
+    <hyperlink ref="H25" r:id="rId12" xr:uid="{A5886F18-9BAF-4703-87DD-480A031EE3BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/Manual Testing/Test Case Writing/Test Case of Login Page of Facebook.xlsx
+++ b/Manual Testing/Test Case Writing/Test Case of Login Page of Facebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SQA\SQA Sample Works\Manual Testing\Test Case Writing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3726C344-B4D7-4D94-8A7D-309A3AB84DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5A6E21-8619-4F3A-8B3F-32794CBA7FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="120">
   <si>
     <t>Project Name:</t>
   </si>
@@ -66,15 +66,9 @@
     <t>Actual Result</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>Screenshot</t>
   </si>
   <si>
-    <t>Comment</t>
-  </si>
-  <si>
     <t>Verify the login page contains elements including Username, Email address, Password, Log in button, Forget password link, and create an account link</t>
   </si>
   <si>
@@ -87,12 +81,6 @@
     <t>Successfully shown all elements</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Login:: UI</t>
-  </si>
-  <si>
     <t>Verify that all the fields have valid placeholders</t>
   </si>
   <si>
@@ -147,21 +135,12 @@
     <t>Pic5</t>
   </si>
   <si>
-    <t>Login:: Cursor focus</t>
-  </si>
-  <si>
-    <t>Login:: Tab button</t>
-  </si>
-  <si>
     <t>Tab functionalities should work properly</t>
   </si>
   <si>
     <t>Tab is worked successfully</t>
   </si>
   <si>
-    <t>Login:: Tab/ Enter key</t>
-  </si>
-  <si>
     <t>Verify "Tab" functionalities is working properly or not</t>
   </si>
   <si>
@@ -174,9 +153,6 @@
     <t>Tab/ Enter key worked successfully</t>
   </si>
   <si>
-    <t>Login:: Valid credential</t>
-  </si>
-  <si>
     <t>Verify that the user is able to login with valid email address &amp; password</t>
   </si>
   <si>
@@ -184,9 +160,6 @@
   </si>
   <si>
     <t>successfully logged in</t>
-  </si>
-  <si>
-    <t>Login:: Invalid credentials</t>
   </si>
   <si>
     <t xml:space="preserve">Shouldn't be able to login </t>
@@ -251,16 +224,10 @@
     <t>Pic9</t>
   </si>
   <si>
-    <t>Login:: Homepage</t>
-  </si>
-  <si>
     <t>Verify that user is redirected to homepage after successful login</t>
   </si>
   <si>
     <t>Redirected to the homepage successfully</t>
-  </si>
-  <si>
-    <t>Login:: Forgotten Password?</t>
   </si>
   <si>
     <t>Successfully redirected to the Forget Password page</t>
@@ -324,9 +291,6 @@
     <t>Pic11</t>
   </si>
   <si>
-    <t>Login:: Password</t>
-  </si>
-  <si>
     <t>Verify that the field doesn't accept any space</t>
   </si>
   <si>
@@ -351,9 +315,6 @@
     <t>Accepted copy paste password</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>Verify that encrypted password sholdn't allow deciphering if copied</t>
   </si>
   <si>
@@ -366,9 +327,6 @@
     <t>Pic12</t>
   </si>
   <si>
-    <t>Login:: Page source</t>
-  </si>
-  <si>
     <t>Verify whether the login form is revealing any security information by viewing the page source</t>
   </si>
   <si>
@@ -388,6 +346,96 @@
   </si>
   <si>
     <t>Should redirect to the Forget Password page</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Cursor focus</t>
+  </si>
+  <si>
+    <t>Tab button</t>
+  </si>
+  <si>
+    <t>Tab/ Enter key</t>
+  </si>
+  <si>
+    <t>Valid credential</t>
+  </si>
+  <si>
+    <t>Invalid credentials</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Homepage</t>
+  </si>
+  <si>
+    <t>Forgotten Password?</t>
+  </si>
+  <si>
+    <t>Page source</t>
+  </si>
+  <si>
+    <t>TC_001</t>
+  </si>
+  <si>
+    <t>TC_002</t>
+  </si>
+  <si>
+    <t>TC_003</t>
+  </si>
+  <si>
+    <t>TC_004</t>
+  </si>
+  <si>
+    <t>TC_005</t>
+  </si>
+  <si>
+    <t>TC_006</t>
+  </si>
+  <si>
+    <t>TC_007</t>
+  </si>
+  <si>
+    <t>TC_008</t>
+  </si>
+  <si>
+    <t>TC_009</t>
+  </si>
+  <si>
+    <t>TC_010</t>
+  </si>
+  <si>
+    <t>TC_011</t>
+  </si>
+  <si>
+    <t>TC_012</t>
+  </si>
+  <si>
+    <t>TC_013</t>
+  </si>
+  <si>
+    <t>TC_014</t>
+  </si>
+  <si>
+    <t>TC_015</t>
+  </si>
+  <si>
+    <t>TC_016</t>
+  </si>
+  <si>
+    <t>TC_017</t>
+  </si>
+  <si>
+    <t>TC_018</t>
+  </si>
+  <si>
+    <t>TC_019</t>
+  </si>
+  <si>
+    <t>TC_020</t>
   </si>
 </sst>
 </file>
@@ -469,7 +517,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -559,19 +607,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -585,7 +620,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -611,9 +646,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -623,9 +655,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -652,37 +681,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -969,63 +977,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" style="8" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="35.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="33.5703125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="16">
         <v>45539</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -1040,1315 +1046,1096 @@
       <c r="F6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="D7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="12"/>
-    </row>
-    <row r="7" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
-        <v>1</v>
-      </c>
-      <c r="B7" s="37" t="s">
+      <c r="E7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="14" t="s">
+    </row>
+    <row r="8" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="D8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="F8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="G8" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
-        <v>2</v>
-      </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="22" t="s">
+      <c r="G9" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
-        <v>3</v>
-      </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="14" t="s">
+    </row>
+    <row r="10" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="22" t="s">
+      <c r="F10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
-        <v>4</v>
-      </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="14" t="s">
+      <c r="G10" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="14" t="s">
+    </row>
+    <row r="11" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="D11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="22" t="s">
+      <c r="G11" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
-        <v>5</v>
-      </c>
-      <c r="B11" s="14" t="s">
+    </row>
+    <row r="12" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
-        <v>6</v>
-      </c>
-      <c r="B12" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="10">
-        <v>7</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="14" t="s">
+      <c r="F15" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="14" t="s">
+      <c r="G15" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="14" t="s">
+    </row>
+    <row r="16" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-    </row>
-    <row r="14" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="10">
-        <v>8</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="14" t="s">
+      <c r="D18" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="15">
-        <v>9</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="14" t="s">
+    </row>
+    <row r="20" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="24"/>
+    </row>
+    <row r="21" spans="1:7" s="25" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="23" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="19"/>
+    </row>
+    <row r="23" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="10">
-        <v>10</v>
-      </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="14" t="s">
+      <c r="D23" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="22" t="s">
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" spans="1:7" s="23" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="10">
-        <v>11</v>
-      </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="14" t="s">
+      <c r="D24" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10">
-        <v>12</v>
-      </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="22" t="s">
+      <c r="G24" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="23" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="I18" s="14"/>
-    </row>
-    <row r="19" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="10">
-        <v>13</v>
-      </c>
-      <c r="B19" s="31" t="s">
+      <c r="C25" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="21" t="s">
+    </row>
+    <row r="26" spans="1:7" s="23" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="I19" s="14"/>
-    </row>
-    <row r="20" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="15">
-        <v>14</v>
-      </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="27"/>
-      <c r="I20" s="19"/>
-    </row>
-    <row r="21" spans="1:9" s="28" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="15">
-        <v>15</v>
-      </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="I21" s="23"/>
-    </row>
-    <row r="22" spans="1:9" s="26" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="10">
-        <v>16</v>
-      </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-    </row>
-    <row r="23" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="29">
-        <v>17</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="G23" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-    </row>
-    <row r="24" spans="1:9" s="26" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="10">
-        <v>18</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="I24" s="24"/>
-    </row>
-    <row r="25" spans="1:9" s="26" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="10">
-        <v>19</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="I25" s="24"/>
-    </row>
-    <row r="26" spans="1:9" s="26" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
-        <v>20</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G26" s="19"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G50" s="7"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G54" s="7"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G55" s="7"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G56" s="7"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G57" s="7"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G58" s="7"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G59" s="7"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G60" s="7"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G62" s="7"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G63" s="7"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G64" s="7"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G66" s="7"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G67" s="7"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G68" s="7"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G69" s="7"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G70" s="7"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G71" s="7"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G72" s="7"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G73" s="7"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G74" s="7"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G75" s="7"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G76" s="7"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G77" s="7"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G78" s="7"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G79" s="7"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G80" s="7"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G81" s="7"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G82" s="7"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G83" s="7"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G84" s="7"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G85" s="7"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G86" s="7"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G87" s="7"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G88" s="7"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G89" s="7"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="7"/>
-      <c r="I90" s="7"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G90" s="7"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G91" s="7"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G92" s="7"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G93" s="7"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G94" s="7"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="5"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G95" s="7"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G96" s="7"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G97" s="7"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G98" s="7"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G99" s="7"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G100" s="7"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G101" s="7"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="7"/>
-      <c r="I102" s="7"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G102" s="7"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="7"/>
-      <c r="I103" s="7"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G103" s="7"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
       <c r="F104" s="7"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="7"/>
-      <c r="I104" s="7"/>
+      <c r="G104" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="E15:E18"/>
-  </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H7" r:id="rId1" xr:uid="{AEBDCB6E-A865-4665-AC2B-3394986D76F3}"/>
-    <hyperlink ref="H8" r:id="rId2" xr:uid="{88467F48-05E4-4B6C-A7B0-2E78CC84AA17}"/>
-    <hyperlink ref="H9" r:id="rId3" xr:uid="{A300F3B2-7AFF-47A5-B6C8-58A0CEF3659B}"/>
-    <hyperlink ref="H10" r:id="rId4" xr:uid="{B278226E-F39E-48C4-8C37-5D7230202F84}"/>
-    <hyperlink ref="H11" r:id="rId5" xr:uid="{8D65BF9E-65CE-4740-BD28-5E497E50D6D5}"/>
-    <hyperlink ref="H15" r:id="rId6" xr:uid="{900278F4-957A-4B44-B600-FD45B17467F0}"/>
-    <hyperlink ref="H16" r:id="rId7" display="Pic6" xr:uid="{60687947-7398-4503-A6C4-6B11E4E8662C}"/>
-    <hyperlink ref="H18" r:id="rId8" xr:uid="{CD00DE70-9017-4168-A035-EFCCD40432C9}"/>
-    <hyperlink ref="H19" r:id="rId9" xr:uid="{4DC42D4F-272B-47D1-95A1-68AE1350687C}"/>
-    <hyperlink ref="H21" r:id="rId10" xr:uid="{ACF5EC2C-7B7E-4941-837C-106252EC6AA7}"/>
-    <hyperlink ref="H24" r:id="rId11" xr:uid="{B94903C3-E133-46BF-888F-C29863CC6165}"/>
-    <hyperlink ref="H25" r:id="rId12" xr:uid="{A5886F18-9BAF-4703-87DD-480A031EE3BF}"/>
+    <hyperlink ref="G7" r:id="rId1" xr:uid="{AEBDCB6E-A865-4665-AC2B-3394986D76F3}"/>
+    <hyperlink ref="G8" r:id="rId2" xr:uid="{88467F48-05E4-4B6C-A7B0-2E78CC84AA17}"/>
+    <hyperlink ref="G9" r:id="rId3" xr:uid="{A300F3B2-7AFF-47A5-B6C8-58A0CEF3659B}"/>
+    <hyperlink ref="G10" r:id="rId4" xr:uid="{B278226E-F39E-48C4-8C37-5D7230202F84}"/>
+    <hyperlink ref="G11" r:id="rId5" xr:uid="{8D65BF9E-65CE-4740-BD28-5E497E50D6D5}"/>
+    <hyperlink ref="G15" r:id="rId6" xr:uid="{900278F4-957A-4B44-B600-FD45B17467F0}"/>
+    <hyperlink ref="G16" r:id="rId7" display="Pic6" xr:uid="{60687947-7398-4503-A6C4-6B11E4E8662C}"/>
+    <hyperlink ref="G18" r:id="rId8" xr:uid="{CD00DE70-9017-4168-A035-EFCCD40432C9}"/>
+    <hyperlink ref="G19" r:id="rId9" xr:uid="{4DC42D4F-272B-47D1-95A1-68AE1350687C}"/>
+    <hyperlink ref="G21" r:id="rId10" xr:uid="{ACF5EC2C-7B7E-4941-837C-106252EC6AA7}"/>
+    <hyperlink ref="G24" r:id="rId11" xr:uid="{B94903C3-E133-46BF-888F-C29863CC6165}"/>
+    <hyperlink ref="G25" r:id="rId12" xr:uid="{A5886F18-9BAF-4703-87DD-480A031EE3BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId13"/>
